--- a/Ficheiro_01.xlsx
+++ b/Ficheiro_01.xlsx
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,7 +128,7 @@
   <dimension ref="C4:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -153,7 +154,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
